--- a/SQL Files/clases_web_aspnet.xlsx
+++ b/SQL Files/clases_web_aspnet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CibertecWeb\SQL Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11745" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11745" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="CLASE_04" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="CLASE_14" sheetId="9" r:id="rId9"/>
     <sheet name="CLASE_15" sheetId="10" r:id="rId10"/>
     <sheet name="CLASE_16" sheetId="11" r:id="rId11"/>
+    <sheet name="CLASE_17" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="186">
   <si>
     <t>ADO.NET</t>
   </si>
@@ -590,6 +591,48 @@
   </si>
   <si>
     <t>VER VIDEOS DE NDC</t>
+  </si>
+  <si>
+    <t>SIGNAL R</t>
+  </si>
+  <si>
+    <t>Tiene una dependencia LADO CLIENTE, depende de JQUERY</t>
+  </si>
+  <si>
+    <t>ASP NET SIGNAL R Core</t>
+  </si>
+  <si>
+    <t>Estan cambiando y evitar dependencia de JQUERY, es muy bueno, no me obliga JQUERY y puedo utilizar JAVA SCRIPT nativo</t>
+  </si>
+  <si>
+    <t>Con estos 2 paquetes es suficiente para que mi proyecto en BLANCO sea WEB API</t>
+  </si>
+  <si>
+    <t>Si me sale esto, quiere decir que mi HUB esta funcionando</t>
+  </si>
+  <si>
+    <t>web sockets ES PROTOCOLO nuevo, es HTTP, o es AJAX o es JAVASCRIPT</t>
+  </si>
+  <si>
+    <t>updateProduct</t>
+  </si>
+  <si>
+    <t>Listener</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Todas las dependencias de SIGNAL R deben estar en la cabecera HEAD</t>
   </si>
 </sst>
 </file>
@@ -2320,6 +2363,506 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="704850" y="2000250"/>
+          <a:ext cx="14792325" cy="4562475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="7048500"/>
+          <a:ext cx="14554200" cy="5000625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="12382500"/>
+          <a:ext cx="11258550" cy="3990975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="17145000"/>
+          <a:ext cx="12601575" cy="4238625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="21907500"/>
+          <a:ext cx="11153775" cy="3400425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="26098500"/>
+          <a:ext cx="11372850" cy="3867150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="30480000"/>
+          <a:ext cx="12068175" cy="3267075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="34290000"/>
+          <a:ext cx="9991725" cy="4724400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="40195500"/>
+          <a:ext cx="11963400" cy="6562725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2811,10 +3354,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B71"/>
+  <dimension ref="B2:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,24 +3390,110 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77" t="s">
+        <v>182</v>
+      </c>
+      <c r="G77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" t="s">
+        <v>184</v>
+      </c>
+      <c r="G78" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>181</v>
+      </c>
+      <c r="F79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C209"/>
+  <sheetViews>
+    <sheetView topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
